--- a/IASC/NO3_IBBCEAS/NeLampSlitOFF.xlsx
+++ b/IASC/NO3_IBBCEAS/NeLampSlitOFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NO3_IBBCEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D11FB55-97F0-4521-9947-9FEAD7EC1261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{0485B45F-5720-4821-B07D-90FBA098F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
